--- a/Netbeans/ANA-ADDIX/output/data_storage/robotstart.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/robotstart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -37,18 +37,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
   </si>
+  <si>
+    <t>https://robotstart.info/2018/01/09/fairydevices-tumbler.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -463,7 +467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +523,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +551,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +579,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +663,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +717,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +801,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +857,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -873,23 +877,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
